--- a/CSV/split_data_feature_imp.xlsx
+++ b/CSV/split_data_feature_imp.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fdccad49d359f9b/Documents/repos/cse450_module2/CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{F395EB8D-F512-45A1-9540-B5EEE64F9B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5507A6A-B036-4F85-979D-56AF7C120261}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:40009_{F395EB8D-F512-45A1-9540-B5EEE64F9B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D328A665-B540-41F8-B940-924A117B8EF0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="split_data_feature_imp" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="split_data_feature_imp" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
   <si>
     <t>empVarRatePos</t>
   </si>
@@ -1043,11 +1046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B93CA4-84FB-4C2F-97CF-18A4A696C8EF}">
   <dimension ref="A1:BH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3122,4 +3125,4243 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109C016D-BDE7-43D1-8249-9AE817EB8D22}">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.13362014463522401</v>
+      </c>
+      <c r="C2">
+        <v>0.13362014463522401</v>
+      </c>
+      <c r="D2">
+        <v>0.12980511586996901</v>
+      </c>
+      <c r="E2">
+        <v>0.13433731315173</v>
+      </c>
+      <c r="F2">
+        <v>0.138780665391526</v>
+      </c>
+      <c r="G2">
+        <v>0.12438584051700199</v>
+      </c>
+      <c r="H2">
+        <v>0.138111804059485</v>
+      </c>
+      <c r="I2">
+        <v>0.15955752385494301</v>
+      </c>
+      <c r="J2">
+        <v>0.13350603320158</v>
+      </c>
+      <c r="K2">
+        <v>0.156705016551072</v>
+      </c>
+      <c r="L2">
+        <v>0.13029448711772099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7.8502739162384899E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.8502739162384899E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.108350016553192</v>
+      </c>
+      <c r="E3">
+        <v>9.8992274187110804E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.109467092046309</v>
+      </c>
+      <c r="G3">
+        <v>0.12301752553392099</v>
+      </c>
+      <c r="H3">
+        <v>0.101049841668572</v>
+      </c>
+      <c r="I3">
+        <v>0.11784982976332201</v>
+      </c>
+      <c r="J3">
+        <v>7.9341944025173902E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.119669138632649</v>
+      </c>
+      <c r="L3">
+        <v>7.8478191377798004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.3554187624090606E-2</v>
+      </c>
+      <c r="C4">
+        <v>7.3554187624090606E-2</v>
+      </c>
+      <c r="D4">
+        <v>8.6040885420604604E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.1845830462836194E-2</v>
+      </c>
+      <c r="F4">
+        <v>8.4301006060657505E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.10090034503265299</v>
+      </c>
+      <c r="H4">
+        <v>8.1645742673239999E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.10964495135223</v>
+      </c>
+      <c r="J4">
+        <v>7.2936642085052295E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.110132329810707</v>
+      </c>
+      <c r="L4">
+        <v>7.1961150575814703E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6.6413422462984997E-2</v>
+      </c>
+      <c r="C5">
+        <v>6.6413422462984997E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.9270204931503094E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.8204660264633201E-2</v>
+      </c>
+      <c r="F5">
+        <v>7.95763498502913E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.5839167634186901E-2</v>
+      </c>
+      <c r="H5">
+        <v>6.0347399358314797E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.8445811725627702E-2</v>
+      </c>
+      <c r="J5">
+        <v>5.8375775757757598E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.8219878739466998E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.9844830385303497E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.2703577274154695E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.2703577274154695E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.0765782385188698E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.48904194456632E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.93361550344539E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.5242822609262101E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.6696821911501998E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.8404116821217702E-2</v>
+      </c>
+      <c r="J6">
+        <v>4.1354485490981599E-2</v>
+      </c>
+      <c r="K6">
+        <v>2.8126047042770701E-2</v>
+      </c>
+      <c r="L6">
+        <v>3.9955355033948002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4.2219305621146203E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.2219305621146203E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.3442891732150601E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.4808744693068099E-2</v>
+      </c>
+      <c r="F7">
+        <v>3.0242250376474902E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.4719260854787199E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.2524881837954302E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.8349566118140199E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.6642262339912799E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.76596750466012E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.9476323733988799E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3.9678385741419103E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.9678385741419103E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.8797723975079901E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.9932946373380301E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.7101563494078801E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.42406395825501E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.2268349137651699E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.6080236693930399E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.5368266791561199E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.7264932702672499E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.9390515331383801E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2.3021656279761101E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.3021656279761101E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.8378707190244099E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.3790655746120701E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.47634717917481E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.24192397162782E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.1301400457475299E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.44663176003071E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.21927618785808E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.4105052401833402E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.3224860696165601E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2.22484126619545E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.22484126619545E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.8212822407678599E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.3420309546193799E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.8770657719170698E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.2081207756314801E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.1178008806981799E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.33421697806061E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.1254094458587301E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.3128270936385E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.2763441002137501E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2.1726882801454399E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.1726882801454399E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.7783747995716401E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.1373989953453999E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.8065357593099698E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.0994180884489899E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.0782703245239901E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.3074285712998001E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.1235401369275299E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.30104752828738E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.2152536559902399E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2.1681204816311798E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.1681204816311798E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.76939843131412E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.0336363221493198E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.7507605780136999E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.0360056460653701E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.9130463770539501E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.1465663600758501E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.0958502647600401E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.14704308690934E-2</v>
+      </c>
+      <c r="L12">
+        <v>2.0397474804218201E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1.8976873102600499E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.8976873102600499E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.7607747620081701E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.92180030671254E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.7123921872065399E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.0074124946350001E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.79029114293697E-2</v>
+      </c>
+      <c r="I13">
+        <v>2.0778209560672799E-2</v>
+      </c>
+      <c r="J13">
+        <v>2.00857389312049E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.05550295672371E-2</v>
+      </c>
+      <c r="L13">
+        <v>2.0250961126120199E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1.8109131135729199E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.8109131135729199E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.6804081767833601E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.8157453429465599E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.6244028527532098E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.9638299515232702E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.7777205993245799E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.07676930991589E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.9812830896177299E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.0412810805138099E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.9727870572421299E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1.76135944564953E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.76135944564953E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.5738656409982701E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.7695077814712201E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.5675986390977802E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.8850317549048201E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.7004354549059499E-2</v>
+      </c>
+      <c r="I15">
+        <v>2.0273936215143201E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.9098154921661E-2</v>
+      </c>
+      <c r="K15">
+        <v>2.03640275434364E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.8866206370834599E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.70620053378473E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.70620053378473E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.54806842850213E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.6455264991475899E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.52301552291136E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.8672663378665501E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.6781334442526601E-2</v>
+      </c>
+      <c r="I16">
+        <v>2.0164872048880698E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.8118432623320701E-2</v>
+      </c>
+      <c r="K16">
+        <v>2.01900479086751E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.8808016694252298E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1.66470204620385E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.66470204620385E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.53815091897992E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.6265956744593399E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.44779894331107E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.82720086456712E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.6363010084094701E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.9880231751767299E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.76641358901104E-2</v>
+      </c>
+      <c r="K17">
+        <v>2.01375566947322E-2</v>
+      </c>
+      <c r="L17">
+        <v>1.7805464170002699E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.5937590956541299E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.5937590956541299E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.53755464888632E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.5937917173093001E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.37223504928455E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.81247390192045E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.55390585897842E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.98654616440475E-2</v>
+      </c>
+      <c r="J18">
+        <v>1.7507961478559202E-2</v>
+      </c>
+      <c r="K18">
+        <v>2.0110881668476101E-2</v>
+      </c>
+      <c r="L18">
+        <v>1.7770051368792499E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1.5249853537776E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.5249853537776E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.5092057014790401E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.5859313830102899E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.35173451561721E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.8090531031080201E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.5288875739693701E-2</v>
+      </c>
+      <c r="I19">
+        <v>1.9789783079235498E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.70210996916089E-2</v>
+      </c>
+      <c r="K19">
+        <v>2.0039626450587201E-2</v>
+      </c>
+      <c r="L19">
+        <v>1.7703331194533899E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1.49395994630222E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.49395994630222E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.4982393581010601E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.58572242444554E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.32981758329639E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.7790429316967001E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.45500377787709E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.9620324203626398E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.6319772957160701E-2</v>
+      </c>
+      <c r="K20">
+        <v>1.9961027651984702E-2</v>
+      </c>
+      <c r="L20">
+        <v>1.6748074576766699E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1.47709343897123E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.47709343897123E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.4781697420729101E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.5256835960467801E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.3121129028542001E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.7745583424329799E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.4504778954584199E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.9265625405250099E-2</v>
+      </c>
+      <c r="J21">
+        <v>1.56488870323102E-2</v>
+      </c>
+      <c r="K21">
+        <v>1.9610611546789301E-2</v>
+      </c>
+      <c r="L21">
+        <v>1.5534535326826899E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1.4699941607373901E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.4699941607373901E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.46224201884092E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.52143454902897E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.3068335729753499E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.6956460216323299E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.4432269373284901E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.8439710240647701E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.54910978289027E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.9357828499263999E-2</v>
+      </c>
+      <c r="L22">
+        <v>1.5455530482256299E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1.4683358080327899E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.4683358080327899E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.4417237863771099E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.50878510886678E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.16723159768131E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.6672286132401098E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.4228361641132699E-2</v>
+      </c>
+      <c r="I23">
+        <v>1.8018454191738299E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.5360432719107199E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.7695503877816599E-2</v>
+      </c>
+      <c r="L23">
+        <v>1.52646647026704E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1.45454351686081E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.45454351686081E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.43768280776601E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.4790546618170799E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.1595163363268801E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.60109336446169E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.4033509915830701E-2</v>
+      </c>
+      <c r="I24">
+        <v>1.7456512606277601E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.53171605859214E-2</v>
+      </c>
+      <c r="K24">
+        <v>1.7315432614862399E-2</v>
+      </c>
+      <c r="L24">
+        <v>1.48078435563503E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1.4433995407351701E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.4433995407351701E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.4285701507397599E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.33932736493506E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.10705646489496E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.5523029099930001E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.4016613235709499E-2</v>
+      </c>
+      <c r="I25">
+        <v>1.6509841677659402E-2</v>
+      </c>
+      <c r="J25">
+        <v>1.52669117617072E-2</v>
+      </c>
+      <c r="K25">
+        <v>1.6060972856728299E-2</v>
+      </c>
+      <c r="L25">
+        <v>1.4607580607664299E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1.4192375758533901E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.4192375758533901E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.37699678377138E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.2950928484239999E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.10225827285043E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.46823545901814E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.3965621668619799E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.20103029256497E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.52644636224321E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.2407380193402699E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.4380980841861801E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1.4095436164530699E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.4095436164530699E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.36727862257229E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.25446981910606E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.09261282418644E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.4559943709361201E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.28729828041698E-2</v>
+      </c>
+      <c r="I27">
+        <v>1.15923001959176E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.4781168710560001E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.1034758521670299E-2</v>
+      </c>
+      <c r="L27">
+        <v>1.4010772913098501E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1.3832318609277999E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.3832318609277999E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.3535658876477801E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.25269392439443E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.08742181826278E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.37595315502624E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.27510930132096E-2</v>
+      </c>
+      <c r="I28">
+        <v>1.0309085865772699E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.4774541916541499E-2</v>
+      </c>
+      <c r="K28">
+        <v>1.06093829747536E-2</v>
+      </c>
+      <c r="L28">
+        <v>1.1736150133886999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1.18464964480209E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.18464964480209E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.34578203206061E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.1790242886221099E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.07575368189695E-2</v>
+      </c>
+      <c r="G29">
+        <v>1.36795717271314E-2</v>
+      </c>
+      <c r="H29">
+        <v>1.26093779754772E-2</v>
+      </c>
+      <c r="I29">
+        <v>8.0561345378746905E-3</v>
+      </c>
+      <c r="J29">
+        <v>1.2034839165939599E-2</v>
+      </c>
+      <c r="K29">
+        <v>8.5635757643029598E-3</v>
+      </c>
+      <c r="L29">
+        <v>1.1727750660416401E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1.14788088486495E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.14788088486495E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.3199945976648499E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.1090877683951599E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.04853036730922E-2</v>
+      </c>
+      <c r="G30">
+        <v>1.06980931781264E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.2153512404690699E-2</v>
+      </c>
+      <c r="I30">
+        <v>7.61770566864939E-3</v>
+      </c>
+      <c r="J30">
+        <v>1.14079588801202E-2</v>
+      </c>
+      <c r="K30">
+        <v>7.9105048045268501E-3</v>
+      </c>
+      <c r="L30">
+        <v>1.1695473493555699E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1.13469203902889E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.13469203902889E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.2749036855266399E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.0742552707521599E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.0203474299203701E-2</v>
+      </c>
+      <c r="G31">
+        <v>1.0338098269688701E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.20838536673658E-2</v>
+      </c>
+      <c r="I31">
+        <v>7.3929977093229399E-3</v>
+      </c>
+      <c r="J31">
+        <v>1.1255973883128399E-2</v>
+      </c>
+      <c r="K31">
+        <v>6.8501329879843698E-3</v>
+      </c>
+      <c r="L31">
+        <v>1.1497482851906E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1.02461834208182E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.02461834208182E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.2339380003389499E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.0351777054564901E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.0097821310280501E-2</v>
+      </c>
+      <c r="G32">
+        <v>1.03137192929221E-2</v>
+      </c>
+      <c r="H32">
+        <v>1.17939209839066E-2</v>
+      </c>
+      <c r="I32">
+        <v>6.9444943045236397E-3</v>
+      </c>
+      <c r="J32">
+        <v>1.12161377936123E-2</v>
+      </c>
+      <c r="K32">
+        <v>6.7968032483412197E-3</v>
+      </c>
+      <c r="L32">
+        <v>1.12549021384366E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1.0070304672492401E-2</v>
+      </c>
+      <c r="C33">
+        <v>1.0070304672492401E-2</v>
+      </c>
+      <c r="D33">
+        <v>1.19404412610589E-2</v>
+      </c>
+      <c r="E33">
+        <v>9.9206471649671002E-3</v>
+      </c>
+      <c r="F33">
+        <v>9.2459018297842092E-3</v>
+      </c>
+      <c r="G33">
+        <v>9.9845524610817794E-3</v>
+      </c>
+      <c r="H33">
+        <v>1.07728534434249E-2</v>
+      </c>
+      <c r="I33">
+        <v>6.6492001026222502E-3</v>
+      </c>
+      <c r="J33">
+        <v>1.06012043515093E-2</v>
+      </c>
+      <c r="K33">
+        <v>6.6380839377263396E-3</v>
+      </c>
+      <c r="L33">
+        <v>1.0902542306370199E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>9.8574059084492096E-3</v>
+      </c>
+      <c r="C34">
+        <v>9.8574059084492096E-3</v>
+      </c>
+      <c r="D34">
+        <v>1.11790591319044E-2</v>
+      </c>
+      <c r="E34">
+        <v>9.0137296505342201E-3</v>
+      </c>
+      <c r="F34">
+        <v>8.9556002044553305E-3</v>
+      </c>
+      <c r="G34">
+        <v>9.9027902058749905E-3</v>
+      </c>
+      <c r="H34">
+        <v>1.01185811738308E-2</v>
+      </c>
+      <c r="I34">
+        <v>6.4077306022207597E-3</v>
+      </c>
+      <c r="J34">
+        <v>1.04431028717363E-2</v>
+      </c>
+      <c r="K34">
+        <v>6.4066298299687201E-3</v>
+      </c>
+      <c r="L34">
+        <v>1.08884527603181E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>8.7139272569652492E-3</v>
+      </c>
+      <c r="C35">
+        <v>8.7139272569652492E-3</v>
+      </c>
+      <c r="D35">
+        <v>9.9662223081292498E-3</v>
+      </c>
+      <c r="E35">
+        <v>8.9860866486536402E-3</v>
+      </c>
+      <c r="F35">
+        <v>8.1770213033976399E-3</v>
+      </c>
+      <c r="G35">
+        <v>9.1765294398033093E-3</v>
+      </c>
+      <c r="H35">
+        <v>8.7627133244503694E-3</v>
+      </c>
+      <c r="I35">
+        <v>6.3636443938967701E-3</v>
+      </c>
+      <c r="J35">
+        <v>9.7703671219880796E-3</v>
+      </c>
+      <c r="K35">
+        <v>6.0356649712689798E-3</v>
+      </c>
+      <c r="L35">
+        <v>1.05660968272279E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>8.3092218297893903E-3</v>
+      </c>
+      <c r="C36">
+        <v>8.3092218297893903E-3</v>
+      </c>
+      <c r="D36">
+        <v>8.5137177707462295E-3</v>
+      </c>
+      <c r="E36">
+        <v>8.8572465739867601E-3</v>
+      </c>
+      <c r="F36">
+        <v>8.0445440725211408E-3</v>
+      </c>
+      <c r="G36">
+        <v>8.9778132465086601E-3</v>
+      </c>
+      <c r="H36">
+        <v>8.6430511304300302E-3</v>
+      </c>
+      <c r="I36">
+        <v>6.1280707018732204E-3</v>
+      </c>
+      <c r="J36">
+        <v>9.4908819582748792E-3</v>
+      </c>
+      <c r="K36">
+        <v>6.0014716505710003E-3</v>
+      </c>
+      <c r="L36">
+        <v>9.5453315582760007E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>7.9775495143658299E-3</v>
+      </c>
+      <c r="C37">
+        <v>7.9775495143658299E-3</v>
+      </c>
+      <c r="D37">
+        <v>7.6982858044005696E-3</v>
+      </c>
+      <c r="E37">
+        <v>8.4441405505442293E-3</v>
+      </c>
+      <c r="F37">
+        <v>7.9848611017588594E-3</v>
+      </c>
+      <c r="G37">
+        <v>8.8754019008609394E-3</v>
+      </c>
+      <c r="H37">
+        <v>7.7775642397422996E-3</v>
+      </c>
+      <c r="I37">
+        <v>5.4328825766582498E-3</v>
+      </c>
+      <c r="J37">
+        <v>9.4423296369626208E-3</v>
+      </c>
+      <c r="K37">
+        <v>6.0010453016787098E-3</v>
+      </c>
+      <c r="L37">
+        <v>9.4047405759854208E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>7.6973378201019797E-3</v>
+      </c>
+      <c r="C38">
+        <v>7.6973378201019797E-3</v>
+      </c>
+      <c r="D38">
+        <v>6.4577817410009699E-3</v>
+      </c>
+      <c r="E38">
+        <v>7.5322126137996898E-3</v>
+      </c>
+      <c r="F38">
+        <v>7.2259764258134802E-3</v>
+      </c>
+      <c r="G38">
+        <v>8.33370795207641E-3</v>
+      </c>
+      <c r="H38">
+        <v>7.5411540965800898E-3</v>
+      </c>
+      <c r="I38">
+        <v>4.9444361027435801E-3</v>
+      </c>
+      <c r="J38">
+        <v>8.3954873592151907E-3</v>
+      </c>
+      <c r="K38">
+        <v>5.5541343318590702E-3</v>
+      </c>
+      <c r="L38">
+        <v>8.7472488165433893E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>7.6594535593827598E-3</v>
+      </c>
+      <c r="C39">
+        <v>7.6594535593827598E-3</v>
+      </c>
+      <c r="D39">
+        <v>6.1010116012810396E-3</v>
+      </c>
+      <c r="E39">
+        <v>7.4175405795083001E-3</v>
+      </c>
+      <c r="F39">
+        <v>5.8100371650340798E-3</v>
+      </c>
+      <c r="G39">
+        <v>7.6876072195275697E-3</v>
+      </c>
+      <c r="H39">
+        <v>7.5260212948430102E-3</v>
+      </c>
+      <c r="I39">
+        <v>4.5875602258865803E-3</v>
+      </c>
+      <c r="J39">
+        <v>8.3945486700792299E-3</v>
+      </c>
+      <c r="K39">
+        <v>3.7868265379227399E-3</v>
+      </c>
+      <c r="L39">
+        <v>8.4527100807859495E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>7.3377392665815496E-3</v>
+      </c>
+      <c r="C40">
+        <v>7.3377392665815496E-3</v>
+      </c>
+      <c r="D40">
+        <v>6.0795268352792104E-3</v>
+      </c>
+      <c r="E40">
+        <v>7.3071324800243996E-3</v>
+      </c>
+      <c r="F40">
+        <v>5.32463535339304E-3</v>
+      </c>
+      <c r="G40">
+        <v>7.2961957893449602E-3</v>
+      </c>
+      <c r="H40">
+        <v>6.2463823065880596E-3</v>
+      </c>
+      <c r="I40">
+        <v>4.3558769773609203E-3</v>
+      </c>
+      <c r="J40">
+        <v>7.8207238255010199E-3</v>
+      </c>
+      <c r="K40">
+        <v>3.5388960877877798E-3</v>
+      </c>
+      <c r="L40">
+        <v>8.1429053218777091E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>5.4720949492805598E-3</v>
+      </c>
+      <c r="C41">
+        <v>5.4720949492805598E-3</v>
+      </c>
+      <c r="D41">
+        <v>5.3545841196920201E-3</v>
+      </c>
+      <c r="E41">
+        <v>7.1305543289581896E-3</v>
+      </c>
+      <c r="F41">
+        <v>4.92633598667857E-3</v>
+      </c>
+      <c r="G41">
+        <v>6.6679807873777997E-3</v>
+      </c>
+      <c r="H41">
+        <v>6.1323834771462799E-3</v>
+      </c>
+      <c r="I41">
+        <v>3.4274007037279099E-3</v>
+      </c>
+      <c r="J41">
+        <v>7.2138834702918904E-3</v>
+      </c>
+      <c r="K41">
+        <v>3.4699808090556E-3</v>
+      </c>
+      <c r="L41">
+        <v>7.7732658437799102E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>5.1786015943306304E-3</v>
+      </c>
+      <c r="C42">
+        <v>5.1786015943306304E-3</v>
+      </c>
+      <c r="D42">
+        <v>5.2740665469564801E-3</v>
+      </c>
+      <c r="E42">
+        <v>6.9635462653106998E-3</v>
+      </c>
+      <c r="F42">
+        <v>4.7009669541399398E-3</v>
+      </c>
+      <c r="G42">
+        <v>5.9701253543283303E-3</v>
+      </c>
+      <c r="H42">
+        <v>5.4508233512737597E-3</v>
+      </c>
+      <c r="I42">
+        <v>3.22156290422717E-3</v>
+      </c>
+      <c r="J42">
+        <v>5.9243581378486199E-3</v>
+      </c>
+      <c r="K42">
+        <v>3.18165808531252E-3</v>
+      </c>
+      <c r="L42">
+        <v>6.4299617609392202E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>3.7029730785819001E-3</v>
+      </c>
+      <c r="C43">
+        <v>3.7029730785819001E-3</v>
+      </c>
+      <c r="D43">
+        <v>5.0088852000834197E-3</v>
+      </c>
+      <c r="E43">
+        <v>6.8823985256571303E-3</v>
+      </c>
+      <c r="F43">
+        <v>4.6564946275788896E-3</v>
+      </c>
+      <c r="G43">
+        <v>5.7833350629934504E-3</v>
+      </c>
+      <c r="H43">
+        <v>5.2951181815333696E-3</v>
+      </c>
+      <c r="I43">
+        <v>3.0978752930963301E-3</v>
+      </c>
+      <c r="J43">
+        <v>5.8535552078238899E-3</v>
+      </c>
+      <c r="K43">
+        <v>3.0610622141450101E-3</v>
+      </c>
+      <c r="L43">
+        <v>6.3111777686076197E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>2.94676033604194E-3</v>
+      </c>
+      <c r="C44">
+        <v>2.94676033604194E-3</v>
+      </c>
+      <c r="D44">
+        <v>4.8221175566112197E-3</v>
+      </c>
+      <c r="E44">
+        <v>6.2483304813896702E-3</v>
+      </c>
+      <c r="F44">
+        <v>4.6096418584580601E-3</v>
+      </c>
+      <c r="G44">
+        <v>5.2840772803229999E-3</v>
+      </c>
+      <c r="H44">
+        <v>5.0983140744839698E-3</v>
+      </c>
+      <c r="I44">
+        <v>3.0197841301371799E-3</v>
+      </c>
+      <c r="J44">
+        <v>5.7535340689234297E-3</v>
+      </c>
+      <c r="K44">
+        <v>2.7977687913704101E-3</v>
+      </c>
+      <c r="L44">
+        <v>5.7914284339554197E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>2.9104466952989201E-3</v>
+      </c>
+      <c r="C45">
+        <v>2.9104466952989201E-3</v>
+      </c>
+      <c r="D45">
+        <v>4.55678748978601E-3</v>
+      </c>
+      <c r="E45">
+        <v>5.2934703036139896E-3</v>
+      </c>
+      <c r="F45">
+        <v>4.5859032921473503E-3</v>
+      </c>
+      <c r="G45">
+        <v>5.1368561142645097E-3</v>
+      </c>
+      <c r="H45">
+        <v>4.9095751998716004E-3</v>
+      </c>
+      <c r="I45">
+        <v>1.9879346521854101E-3</v>
+      </c>
+      <c r="J45">
+        <v>5.5465696377149697E-3</v>
+      </c>
+      <c r="K45">
+        <v>1.9293114398309899E-3</v>
+      </c>
+      <c r="L45">
+        <v>5.3339616826556698E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>2.69357341342016E-3</v>
+      </c>
+      <c r="C46">
+        <v>2.69357341342016E-3</v>
+      </c>
+      <c r="D46">
+        <v>2.4511976741661101E-3</v>
+      </c>
+      <c r="E46">
+        <v>5.0688275316404397E-3</v>
+      </c>
+      <c r="F46">
+        <v>4.5150663434745802E-3</v>
+      </c>
+      <c r="G46">
+        <v>4.0875442580985098E-3</v>
+      </c>
+      <c r="H46">
+        <v>3.6198788974033001E-3</v>
+      </c>
+      <c r="I46">
+        <v>1.75448086886132E-3</v>
+      </c>
+      <c r="J46">
+        <v>4.7033996549973199E-3</v>
+      </c>
+      <c r="K46">
+        <v>1.73610351146032E-3</v>
+      </c>
+      <c r="L46">
+        <v>4.7020261249088296E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>2.2937910195638001E-3</v>
+      </c>
+      <c r="C47">
+        <v>2.2937910195638001E-3</v>
+      </c>
+      <c r="D47">
+        <v>2.2916155293667599E-3</v>
+      </c>
+      <c r="E47">
+        <v>4.2210530422267297E-3</v>
+      </c>
+      <c r="F47">
+        <v>4.3254635633135597E-3</v>
+      </c>
+      <c r="G47">
+        <v>3.6236063912705898E-3</v>
+      </c>
+      <c r="H47">
+        <v>3.22669850120787E-3</v>
+      </c>
+      <c r="I47">
+        <v>1.7103154998827201E-3</v>
+      </c>
+      <c r="J47">
+        <v>4.2127133459380498E-3</v>
+      </c>
+      <c r="K47">
+        <v>1.6077961665987299E-3</v>
+      </c>
+      <c r="L47">
+        <v>4.6603936914433302E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1.779968776109E-3</v>
+      </c>
+      <c r="C48">
+        <v>1.779968776109E-3</v>
+      </c>
+      <c r="D48">
+        <v>2.2590249997979299E-3</v>
+      </c>
+      <c r="E48">
+        <v>4.0272341049001296E-3</v>
+      </c>
+      <c r="F48">
+        <v>3.9818862274820996E-3</v>
+      </c>
+      <c r="G48">
+        <v>2.9516919528557702E-3</v>
+      </c>
+      <c r="H48">
+        <v>2.5910940936421599E-3</v>
+      </c>
+      <c r="I48">
+        <v>1.52208194862394E-3</v>
+      </c>
+      <c r="J48">
+        <v>3.9035645118297101E-3</v>
+      </c>
+      <c r="K48">
+        <v>1.5685315045497899E-3</v>
+      </c>
+      <c r="L48">
+        <v>3.48708462439938E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>5.6232933768915699E-4</v>
+      </c>
+      <c r="C49">
+        <v>5.6232933768915699E-4</v>
+      </c>
+      <c r="D49">
+        <v>2.0997504300210401E-3</v>
+      </c>
+      <c r="E49">
+        <v>3.8428493609825999E-3</v>
+      </c>
+      <c r="F49">
+        <v>3.0910095932218198E-3</v>
+      </c>
+      <c r="G49">
+        <v>2.92219880803585E-3</v>
+      </c>
+      <c r="H49">
+        <v>2.5348012375319101E-3</v>
+      </c>
+      <c r="I49">
+        <v>1.4759391299939599E-3</v>
+      </c>
+      <c r="J49">
+        <v>3.1750154719167099E-3</v>
+      </c>
+      <c r="K49">
+        <v>1.5518888383762601E-3</v>
+      </c>
+      <c r="L49">
+        <v>3.2644178560353402E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>2.0923001900471599E-3</v>
+      </c>
+      <c r="E50">
+        <v>2.9000626309641799E-3</v>
+      </c>
+      <c r="F50">
+        <v>2.0263471610809701E-3</v>
+      </c>
+      <c r="G50">
+        <v>2.4163107918341101E-3</v>
+      </c>
+      <c r="H50">
+        <v>2.5269452859324601E-3</v>
+      </c>
+      <c r="I50">
+        <v>1.46551623106366E-3</v>
+      </c>
+      <c r="J50">
+        <v>3.13691828992281E-3</v>
+      </c>
+      <c r="K50">
+        <v>1.3335379366778001E-3</v>
+      </c>
+      <c r="L50">
+        <v>3.2536766536363799E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>1.9675125141520298E-3</v>
+      </c>
+      <c r="E51">
+        <v>2.87096781191052E-3</v>
+      </c>
+      <c r="F51">
+        <v>1.98706084588096E-3</v>
+      </c>
+      <c r="G51">
+        <v>2.1564551200618999E-3</v>
+      </c>
+      <c r="H51">
+        <v>2.3599542561581499E-3</v>
+      </c>
+      <c r="I51">
+        <v>1.20329487726704E-3</v>
+      </c>
+      <c r="J51">
+        <v>2.6686758314282601E-3</v>
+      </c>
+      <c r="K51">
+        <v>1.1533309902328E-3</v>
+      </c>
+      <c r="L51">
+        <v>2.5771285425001699E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>1.7860159901758499E-3</v>
+      </c>
+      <c r="E52">
+        <v>2.56738467595212E-3</v>
+      </c>
+      <c r="F52">
+        <v>1.91177604514602E-3</v>
+      </c>
+      <c r="G52">
+        <v>2.0375978021325999E-3</v>
+      </c>
+      <c r="H52">
+        <v>2.2936429437573798E-3</v>
+      </c>
+      <c r="I52">
+        <v>6.4522825750296803E-4</v>
+      </c>
+      <c r="J52">
+        <v>2.5372011473432298E-3</v>
+      </c>
+      <c r="K52">
+        <v>5.0775997587609899E-4</v>
+      </c>
+      <c r="L52">
+        <v>2.54678210168596E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>1.09419746053217E-3</v>
+      </c>
+      <c r="E53">
+        <v>2.35796520787767E-3</v>
+      </c>
+      <c r="F53">
+        <v>1.3963439069128E-3</v>
+      </c>
+      <c r="G53">
+        <v>1.7300255139000599E-3</v>
+      </c>
+      <c r="H53">
+        <v>2.2790466021195099E-3</v>
+      </c>
+      <c r="I53">
+        <v>3.0270948064513298E-4</v>
+      </c>
+      <c r="J53">
+        <v>2.4849365379222099E-3</v>
+      </c>
+      <c r="K53">
+        <v>2.4487185190302102E-4</v>
+      </c>
+      <c r="L53">
+        <v>2.4993834133164301E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>8.3679826563272505E-4</v>
+      </c>
+      <c r="E54">
+        <v>1.45798285606779E-3</v>
+      </c>
+      <c r="F54">
+        <v>1.3601803016298399E-3</v>
+      </c>
+      <c r="G54">
+        <v>9.1346314865502405E-4</v>
+      </c>
+      <c r="H54">
+        <v>1.9742618916767998E-3</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1.1339693626392799E-5</v>
+      </c>
+      <c r="J54">
+        <v>2.3262142080352202E-3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>6.4827571588945494E-5</v>
+      </c>
+      <c r="L54">
+        <v>2.4069897516524798E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>7.8756845909691803E-4</v>
+      </c>
+      <c r="E55">
+        <v>1.1659663623782501E-3</v>
+      </c>
+      <c r="F55">
+        <v>1.34780818576219E-3</v>
+      </c>
+      <c r="G55">
+        <v>9.1325567239852496E-4</v>
+      </c>
+      <c r="H55">
+        <v>1.87212514697748E-3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4.6303314043274701E-7</v>
+      </c>
+      <c r="J55">
+        <v>2.2781655268032902E-3</v>
+      </c>
+      <c r="K55" s="1">
+        <v>9.6880408674449002E-6</v>
+      </c>
+      <c r="L55">
+        <v>2.3297692988362398E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>3.8929629843639698E-4</v>
+      </c>
+      <c r="E56">
+        <v>9.83466383564851E-4</v>
+      </c>
+      <c r="F56">
+        <v>1.1590986314409201E-3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4.6683442794582698E-5</v>
+      </c>
+      <c r="H56">
+        <v>1.8116236192605201E-3</v>
+      </c>
+      <c r="J56">
+        <v>2.25980694164545E-3</v>
+      </c>
+      <c r="L56">
+        <v>2.2543234979754499E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>8.1712175186300705E-4</v>
+      </c>
+      <c r="F57">
+        <v>8.3639574404870999E-4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.06891495055047E-7</v>
+      </c>
+      <c r="H57">
+        <v>8.8053911191082095E-4</v>
+      </c>
+      <c r="J57">
+        <v>9.7457893739008605E-4</v>
+      </c>
+      <c r="L57">
+        <v>1.04931496401875E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>7.5477171326992696E-4</v>
+      </c>
+      <c r="F58">
+        <v>7.7009985786541499E-4</v>
+      </c>
+      <c r="H58">
+        <v>4.5088902973616898E-4</v>
+      </c>
+      <c r="J58">
+        <v>7.9586645665143997E-4</v>
+      </c>
+      <c r="L58">
+        <v>7.0915511799866699E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E59" s="1">
+        <v>7.9457443429009306E-6</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>5.2740928915010697E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CEC92F-6E00-4728-96E1-320C1A347028}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BH12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.13362014463522401</v>
+      </c>
+      <c r="C2">
+        <v>7.8502739162384899E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.3554187624090606E-2</v>
+      </c>
+      <c r="E2">
+        <v>6.6413422462984997E-2</v>
+      </c>
+      <c r="F2">
+        <v>6.2703577274154695E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.2219305621146203E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.9678385741419103E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.4758729145122501E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.3021656279761101E-2</v>
+      </c>
+      <c r="K2">
+        <v>2.22484126619545E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.1726882801454399E-2</v>
+      </c>
+      <c r="M2">
+        <v>2.1681204816311798E-2</v>
+      </c>
+      <c r="N2">
+        <v>1.8976873102600499E-2</v>
+      </c>
+      <c r="O2">
+        <v>1.8109131135729199E-2</v>
+      </c>
+      <c r="P2">
+        <v>1.76135944564953E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1.70620053378473E-2</v>
+      </c>
+      <c r="R2">
+        <v>1.66470204620385E-2</v>
+      </c>
+      <c r="S2">
+        <v>1.5937590956541299E-2</v>
+      </c>
+      <c r="T2">
+        <v>1.5249853537776E-2</v>
+      </c>
+      <c r="U2">
+        <v>1.49395994630222E-2</v>
+      </c>
+      <c r="V2">
+        <v>1.47709343897123E-2</v>
+      </c>
+      <c r="W2">
+        <v>1.4699941607373901E-2</v>
+      </c>
+      <c r="X2">
+        <v>1.4683358080327899E-2</v>
+      </c>
+      <c r="Y2">
+        <v>1.45454351686081E-2</v>
+      </c>
+      <c r="Z2">
+        <v>1.4433995407351701E-2</v>
+      </c>
+      <c r="AA2">
+        <v>1.4192375758533901E-2</v>
+      </c>
+      <c r="AB2">
+        <v>1.4095436164530699E-2</v>
+      </c>
+      <c r="AC2">
+        <v>1.3832318609277999E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1.18464964480209E-2</v>
+      </c>
+      <c r="AE2">
+        <v>1.14788088486495E-2</v>
+      </c>
+      <c r="AF2">
+        <v>1.13469203902889E-2</v>
+      </c>
+      <c r="AG2">
+        <v>1.02461834208182E-2</v>
+      </c>
+      <c r="AH2">
+        <v>1.0070304672492401E-2</v>
+      </c>
+      <c r="AI2">
+        <v>9.8574059084492096E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>8.7139272569652492E-3</v>
+      </c>
+      <c r="AK2">
+        <v>8.3092218297893903E-3</v>
+      </c>
+      <c r="AL2">
+        <v>7.9775495143658299E-3</v>
+      </c>
+      <c r="AM2">
+        <v>7.6973378201019797E-3</v>
+      </c>
+      <c r="AN2">
+        <v>7.6594535593827598E-3</v>
+      </c>
+      <c r="AO2">
+        <v>7.3377392665815496E-3</v>
+      </c>
+      <c r="AP2">
+        <v>5.4720949492805598E-3</v>
+      </c>
+      <c r="AQ2">
+        <v>5.1786015943306304E-3</v>
+      </c>
+      <c r="AR2">
+        <v>3.7029730785819001E-3</v>
+      </c>
+      <c r="AS2">
+        <v>2.94676033604194E-3</v>
+      </c>
+      <c r="AT2">
+        <v>2.9104466952989201E-3</v>
+      </c>
+      <c r="AU2">
+        <v>2.69357341342016E-3</v>
+      </c>
+      <c r="AV2">
+        <v>2.2937910195638001E-3</v>
+      </c>
+      <c r="AW2">
+        <v>1.779968776109E-3</v>
+      </c>
+      <c r="AX2">
+        <v>5.6232933768915699E-4</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.13362014463522401</v>
+      </c>
+      <c r="C3">
+        <v>7.8502739162384899E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.3554187624090606E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.6413422462984997E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.2703577274154695E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.2219305621146203E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.9678385741419103E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.4758729145122501E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.3021656279761101E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.22484126619545E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.1726882801454399E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.1681204816311798E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.8976873102600499E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.8109131135729199E-2</v>
+      </c>
+      <c r="P3">
+        <v>1.76135944564953E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.70620053378473E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.66470204620385E-2</v>
+      </c>
+      <c r="S3">
+        <v>1.5937590956541299E-2</v>
+      </c>
+      <c r="T3">
+        <v>1.5249853537776E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.49395994630222E-2</v>
+      </c>
+      <c r="V3">
+        <v>1.47709343897123E-2</v>
+      </c>
+      <c r="W3">
+        <v>1.4699941607373901E-2</v>
+      </c>
+      <c r="X3">
+        <v>1.4683358080327899E-2</v>
+      </c>
+      <c r="Y3">
+        <v>1.45454351686081E-2</v>
+      </c>
+      <c r="Z3">
+        <v>1.4433995407351701E-2</v>
+      </c>
+      <c r="AA3">
+        <v>1.4192375758533901E-2</v>
+      </c>
+      <c r="AB3">
+        <v>1.4095436164530699E-2</v>
+      </c>
+      <c r="AC3">
+        <v>1.3832318609277999E-2</v>
+      </c>
+      <c r="AD3">
+        <v>1.18464964480209E-2</v>
+      </c>
+      <c r="AE3">
+        <v>1.14788088486495E-2</v>
+      </c>
+      <c r="AF3">
+        <v>1.13469203902889E-2</v>
+      </c>
+      <c r="AG3">
+        <v>1.02461834208182E-2</v>
+      </c>
+      <c r="AH3">
+        <v>1.0070304672492401E-2</v>
+      </c>
+      <c r="AI3">
+        <v>9.8574059084492096E-3</v>
+      </c>
+      <c r="AJ3">
+        <v>8.7139272569652492E-3</v>
+      </c>
+      <c r="AK3">
+        <v>8.3092218297893903E-3</v>
+      </c>
+      <c r="AL3">
+        <v>7.9775495143658299E-3</v>
+      </c>
+      <c r="AM3">
+        <v>7.6973378201019797E-3</v>
+      </c>
+      <c r="AN3">
+        <v>7.6594535593827598E-3</v>
+      </c>
+      <c r="AO3">
+        <v>7.3377392665815496E-3</v>
+      </c>
+      <c r="AP3">
+        <v>5.4720949492805598E-3</v>
+      </c>
+      <c r="AQ3">
+        <v>5.1786015943306304E-3</v>
+      </c>
+      <c r="AR3">
+        <v>3.7029730785819001E-3</v>
+      </c>
+      <c r="AS3">
+        <v>2.94676033604194E-3</v>
+      </c>
+      <c r="AT3">
+        <v>2.9104466952989201E-3</v>
+      </c>
+      <c r="AU3">
+        <v>2.69357341342016E-3</v>
+      </c>
+      <c r="AV3">
+        <v>2.2937910195638001E-3</v>
+      </c>
+      <c r="AW3">
+        <v>1.779968776109E-3</v>
+      </c>
+      <c r="AX3">
+        <v>5.6232933768915699E-4</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>0.12980511586996901</v>
+      </c>
+      <c r="C4">
+        <v>0.108350016553192</v>
+      </c>
+      <c r="D4">
+        <v>8.6040885420604604E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.9270204931503094E-2</v>
+      </c>
+      <c r="F4">
+        <v>6.0765782385188698E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.3442891732150601E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.8797723975079901E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.87791945359988E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.8378707190244099E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.8212822407678599E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.7783747995716401E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.76939843131412E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.7607747620081701E-2</v>
+      </c>
+      <c r="O4">
+        <v>1.6804081767833601E-2</v>
+      </c>
+      <c r="P4">
+        <v>1.5738656409982701E-2</v>
+      </c>
+      <c r="Q4">
+        <v>1.54806842850213E-2</v>
+      </c>
+      <c r="R4">
+        <v>1.53815091897992E-2</v>
+      </c>
+      <c r="S4">
+        <v>1.53755464888632E-2</v>
+      </c>
+      <c r="T4">
+        <v>1.5092057014790401E-2</v>
+      </c>
+      <c r="U4">
+        <v>1.4982393581010601E-2</v>
+      </c>
+      <c r="V4">
+        <v>1.4781697420729101E-2</v>
+      </c>
+      <c r="W4">
+        <v>1.46224201884092E-2</v>
+      </c>
+      <c r="X4">
+        <v>1.4417237863771099E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1.43768280776601E-2</v>
+      </c>
+      <c r="Z4">
+        <v>1.4285701507397599E-2</v>
+      </c>
+      <c r="AA4">
+        <v>1.37699678377138E-2</v>
+      </c>
+      <c r="AB4">
+        <v>1.36727862257229E-2</v>
+      </c>
+      <c r="AC4">
+        <v>1.3535658876477801E-2</v>
+      </c>
+      <c r="AD4">
+        <v>1.34578203206061E-2</v>
+      </c>
+      <c r="AE4">
+        <v>1.3199945976648499E-2</v>
+      </c>
+      <c r="AF4">
+        <v>1.2749036855266399E-2</v>
+      </c>
+      <c r="AG4">
+        <v>1.2339380003389499E-2</v>
+      </c>
+      <c r="AH4">
+        <v>1.19404412610589E-2</v>
+      </c>
+      <c r="AI4">
+        <v>1.11790591319044E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>9.9662223081292498E-3</v>
+      </c>
+      <c r="AK4">
+        <v>8.5137177707462295E-3</v>
+      </c>
+      <c r="AL4">
+        <v>7.6982858044005696E-3</v>
+      </c>
+      <c r="AM4">
+        <v>6.4577817410009699E-3</v>
+      </c>
+      <c r="AN4">
+        <v>6.1010116012810396E-3</v>
+      </c>
+      <c r="AO4">
+        <v>6.0795268352792104E-3</v>
+      </c>
+      <c r="AP4">
+        <v>5.3545841196920201E-3</v>
+      </c>
+      <c r="AQ4">
+        <v>5.2740665469564801E-3</v>
+      </c>
+      <c r="AR4">
+        <v>5.0088852000834197E-3</v>
+      </c>
+      <c r="AS4">
+        <v>4.8221175566112197E-3</v>
+      </c>
+      <c r="AT4">
+        <v>4.55678748978601E-3</v>
+      </c>
+      <c r="AU4">
+        <v>2.4511976741661101E-3</v>
+      </c>
+      <c r="AV4">
+        <v>2.2916155293667599E-3</v>
+      </c>
+      <c r="AW4">
+        <v>2.2590249997979299E-3</v>
+      </c>
+      <c r="AX4">
+        <v>2.0997504300210401E-3</v>
+      </c>
+      <c r="AY4">
+        <v>2.0923001900471599E-3</v>
+      </c>
+      <c r="AZ4">
+        <v>1.9675125141520298E-3</v>
+      </c>
+      <c r="BA4">
+        <v>1.7860159901758499E-3</v>
+      </c>
+      <c r="BB4">
+        <v>1.09419746053217E-3</v>
+      </c>
+      <c r="BC4">
+        <v>8.3679826563272505E-4</v>
+      </c>
+      <c r="BD4">
+        <v>7.8756845909691803E-4</v>
+      </c>
+      <c r="BE4">
+        <v>3.8929629843639698E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>0.13433731315173</v>
+      </c>
+      <c r="C5">
+        <v>9.8992274187110804E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.1845830462836194E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.8204660264633201E-2</v>
+      </c>
+      <c r="F5">
+        <v>3.48904194456632E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.4808744693068099E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9932946373380301E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.3838777255949999E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.3790655746120701E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.3420309546193799E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.1373989953453999E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.0336363221493198E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.92180030671254E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.8157453429465599E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.7695077814712201E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.6455264991475899E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.6265956744593399E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.5937917173093001E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.5859313830102899E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.58572242444554E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.5256835960467801E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.52143454902897E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.50878510886678E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.4790546618170799E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1.33932736493506E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.2950928484239999E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.25446981910606E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.25269392439443E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.1790242886221099E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.1090877683951599E-2</v>
+      </c>
+      <c r="AF5">
+        <v>1.0742552707521599E-2</v>
+      </c>
+      <c r="AG5">
+        <v>1.0351777054564901E-2</v>
+      </c>
+      <c r="AH5">
+        <v>9.9206471649671002E-3</v>
+      </c>
+      <c r="AI5">
+        <v>9.0137296505342201E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>8.9860866486536402E-3</v>
+      </c>
+      <c r="AK5">
+        <v>8.8572465739867601E-3</v>
+      </c>
+      <c r="AL5">
+        <v>8.4441405505442293E-3</v>
+      </c>
+      <c r="AM5">
+        <v>7.5322126137996898E-3</v>
+      </c>
+      <c r="AN5">
+        <v>7.4175405795083001E-3</v>
+      </c>
+      <c r="AO5">
+        <v>7.3071324800243996E-3</v>
+      </c>
+      <c r="AP5">
+        <v>7.1305543289581896E-3</v>
+      </c>
+      <c r="AQ5">
+        <v>6.9635462653106998E-3</v>
+      </c>
+      <c r="AR5">
+        <v>6.8823985256571303E-3</v>
+      </c>
+      <c r="AS5">
+        <v>6.2483304813896702E-3</v>
+      </c>
+      <c r="AT5">
+        <v>5.2934703036139896E-3</v>
+      </c>
+      <c r="AU5">
+        <v>5.0688275316404397E-3</v>
+      </c>
+      <c r="AV5">
+        <v>4.2210530422267297E-3</v>
+      </c>
+      <c r="AW5">
+        <v>4.0272341049001296E-3</v>
+      </c>
+      <c r="AX5">
+        <v>3.8428493609825999E-3</v>
+      </c>
+      <c r="AY5">
+        <v>2.9000626309641799E-3</v>
+      </c>
+      <c r="AZ5">
+        <v>2.87096781191052E-3</v>
+      </c>
+      <c r="BA5">
+        <v>2.56738467595212E-3</v>
+      </c>
+      <c r="BB5">
+        <v>2.35796520787767E-3</v>
+      </c>
+      <c r="BC5">
+        <v>1.45798285606779E-3</v>
+      </c>
+      <c r="BD5">
+        <v>1.1659663623782501E-3</v>
+      </c>
+      <c r="BE5">
+        <v>9.83466383564851E-4</v>
+      </c>
+      <c r="BF5">
+        <v>8.1712175186300705E-4</v>
+      </c>
+      <c r="BG5">
+        <v>7.5477171326992696E-4</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>7.9457443429009306E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>0.138780665391526</v>
+      </c>
+      <c r="C6">
+        <v>0.109467092046309</v>
+      </c>
+      <c r="D6">
+        <v>8.4301006060657505E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.95763498502913E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.93361550344539E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.0242250376474902E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.7101563494078801E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.49468413429789E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.47634717917481E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.8770657719170698E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.8065357593099698E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.7507605780136999E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.7123921872065399E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.6244028527532098E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.5675986390977802E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.52301552291136E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.44779894331107E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.37223504928455E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.35173451561721E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.32981758329639E-2</v>
+      </c>
+      <c r="V6">
+        <v>1.3121129028542001E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.3068335729753499E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.16723159768131E-2</v>
+      </c>
+      <c r="Y6">
+        <v>1.1595163363268801E-2</v>
+      </c>
+      <c r="Z6">
+        <v>1.10705646489496E-2</v>
+      </c>
+      <c r="AA6">
+        <v>1.10225827285043E-2</v>
+      </c>
+      <c r="AB6">
+        <v>1.09261282418644E-2</v>
+      </c>
+      <c r="AC6">
+        <v>1.08742181826278E-2</v>
+      </c>
+      <c r="AD6">
+        <v>1.07575368189695E-2</v>
+      </c>
+      <c r="AE6">
+        <v>1.04853036730922E-2</v>
+      </c>
+      <c r="AF6">
+        <v>1.0203474299203701E-2</v>
+      </c>
+      <c r="AG6">
+        <v>1.0097821310280501E-2</v>
+      </c>
+      <c r="AH6">
+        <v>9.2459018297842092E-3</v>
+      </c>
+      <c r="AI6">
+        <v>8.9556002044553305E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>8.1770213033976399E-3</v>
+      </c>
+      <c r="AK6">
+        <v>8.0445440725211408E-3</v>
+      </c>
+      <c r="AL6">
+        <v>7.9848611017588594E-3</v>
+      </c>
+      <c r="AM6">
+        <v>7.2259764258134802E-3</v>
+      </c>
+      <c r="AN6">
+        <v>5.8100371650340798E-3</v>
+      </c>
+      <c r="AO6">
+        <v>5.32463535339304E-3</v>
+      </c>
+      <c r="AP6">
+        <v>4.92633598667857E-3</v>
+      </c>
+      <c r="AQ6">
+        <v>4.7009669541399398E-3</v>
+      </c>
+      <c r="AR6">
+        <v>4.6564946275788896E-3</v>
+      </c>
+      <c r="AS6">
+        <v>4.6096418584580601E-3</v>
+      </c>
+      <c r="AT6">
+        <v>4.5859032921473503E-3</v>
+      </c>
+      <c r="AU6">
+        <v>4.5150663434745802E-3</v>
+      </c>
+      <c r="AV6">
+        <v>4.3254635633135597E-3</v>
+      </c>
+      <c r="AW6">
+        <v>3.9818862274820996E-3</v>
+      </c>
+      <c r="AX6">
+        <v>3.0910095932218198E-3</v>
+      </c>
+      <c r="AY6">
+        <v>2.0263471610809701E-3</v>
+      </c>
+      <c r="AZ6">
+        <v>1.98706084588096E-3</v>
+      </c>
+      <c r="BA6">
+        <v>1.91177604514602E-3</v>
+      </c>
+      <c r="BB6">
+        <v>1.3963439069128E-3</v>
+      </c>
+      <c r="BC6">
+        <v>1.3601803016298399E-3</v>
+      </c>
+      <c r="BD6">
+        <v>1.34780818576219E-3</v>
+      </c>
+      <c r="BE6">
+        <v>1.1590986314409201E-3</v>
+      </c>
+      <c r="BF6">
+        <v>8.3639574404870999E-4</v>
+      </c>
+      <c r="BG6">
+        <v>7.7009985786541499E-4</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0.12438584051700199</v>
+      </c>
+      <c r="C7">
+        <v>0.12301752553392099</v>
+      </c>
+      <c r="D7">
+        <v>0.10090034503265299</v>
+      </c>
+      <c r="E7">
+        <v>2.5839167634186901E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.5242822609262101E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.4719260854787199E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.42406395825501E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.24710825725053E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.24192397162782E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.2081207756314801E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.0994180884489899E-2</v>
+      </c>
+      <c r="M7">
+        <v>2.0360056460653701E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.0074124946350001E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.9638299515232702E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.8850317549048201E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.8672663378665501E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.82720086456712E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.81247390192045E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.8090531031080201E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.7790429316967001E-2</v>
+      </c>
+      <c r="V7">
+        <v>1.7745583424329799E-2</v>
+      </c>
+      <c r="W7">
+        <v>1.6956460216323299E-2</v>
+      </c>
+      <c r="X7">
+        <v>1.6672286132401098E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1.60109336446169E-2</v>
+      </c>
+      <c r="Z7">
+        <v>1.5523029099930001E-2</v>
+      </c>
+      <c r="AA7">
+        <v>1.46823545901814E-2</v>
+      </c>
+      <c r="AB7">
+        <v>1.4559943709361201E-2</v>
+      </c>
+      <c r="AC7">
+        <v>1.37595315502624E-2</v>
+      </c>
+      <c r="AD7">
+        <v>1.36795717271314E-2</v>
+      </c>
+      <c r="AE7">
+        <v>1.06980931781264E-2</v>
+      </c>
+      <c r="AF7">
+        <v>1.0338098269688701E-2</v>
+      </c>
+      <c r="AG7">
+        <v>1.03137192929221E-2</v>
+      </c>
+      <c r="AH7">
+        <v>9.9845524610817794E-3</v>
+      </c>
+      <c r="AI7">
+        <v>9.9027902058749905E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>9.1765294398033093E-3</v>
+      </c>
+      <c r="AK7">
+        <v>8.9778132465086601E-3</v>
+      </c>
+      <c r="AL7">
+        <v>8.8754019008609394E-3</v>
+      </c>
+      <c r="AM7">
+        <v>8.33370795207641E-3</v>
+      </c>
+      <c r="AN7">
+        <v>7.6876072195275697E-3</v>
+      </c>
+      <c r="AO7">
+        <v>7.2961957893449602E-3</v>
+      </c>
+      <c r="AP7">
+        <v>6.6679807873777997E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>5.9701253543283303E-3</v>
+      </c>
+      <c r="AR7">
+        <v>5.7833350629934504E-3</v>
+      </c>
+      <c r="AS7">
+        <v>5.2840772803229999E-3</v>
+      </c>
+      <c r="AT7">
+        <v>5.1368561142645097E-3</v>
+      </c>
+      <c r="AU7">
+        <v>4.0875442580985098E-3</v>
+      </c>
+      <c r="AV7">
+        <v>3.6236063912705898E-3</v>
+      </c>
+      <c r="AW7">
+        <v>2.9516919528557702E-3</v>
+      </c>
+      <c r="AX7">
+        <v>2.92219880803585E-3</v>
+      </c>
+      <c r="AY7">
+        <v>2.4163107918341101E-3</v>
+      </c>
+      <c r="AZ7">
+        <v>2.1564551200618999E-3</v>
+      </c>
+      <c r="BA7">
+        <v>2.0375978021325999E-3</v>
+      </c>
+      <c r="BB7">
+        <v>1.7300255139000599E-3</v>
+      </c>
+      <c r="BC7">
+        <v>9.1346314865502405E-4</v>
+      </c>
+      <c r="BD7">
+        <v>9.1325567239852496E-4</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>4.6683442794582698E-5</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>1.06891495055047E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>0.138111804059485</v>
+      </c>
+      <c r="C8">
+        <v>0.101049841668572</v>
+      </c>
+      <c r="D8">
+        <v>8.1645742673239999E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.0347399358314797E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.6696821911501998E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.2524881837954302E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.2268349137651699E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.16085888241093E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.1301400457475299E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.1178008806981799E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.0782703245239901E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.9130463770539501E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.79029114293697E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.7777205993245799E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.7004354549059499E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.6781334442526601E-2</v>
+      </c>
+      <c r="R8">
+        <v>1.6363010084094701E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.55390585897842E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.5288875739693701E-2</v>
+      </c>
+      <c r="U8">
+        <v>1.45500377787709E-2</v>
+      </c>
+      <c r="V8">
+        <v>1.4504778954584199E-2</v>
+      </c>
+      <c r="W8">
+        <v>1.4432269373284901E-2</v>
+      </c>
+      <c r="X8">
+        <v>1.4228361641132699E-2</v>
+      </c>
+      <c r="Y8">
+        <v>1.4033509915830701E-2</v>
+      </c>
+      <c r="Z8">
+        <v>1.4016613235709499E-2</v>
+      </c>
+      <c r="AA8">
+        <v>1.3965621668619799E-2</v>
+      </c>
+      <c r="AB8">
+        <v>1.28729828041698E-2</v>
+      </c>
+      <c r="AC8">
+        <v>1.27510930132096E-2</v>
+      </c>
+      <c r="AD8">
+        <v>1.26093779754772E-2</v>
+      </c>
+      <c r="AE8">
+        <v>1.2153512404690699E-2</v>
+      </c>
+      <c r="AF8">
+        <v>1.20838536673658E-2</v>
+      </c>
+      <c r="AG8">
+        <v>1.17939209839066E-2</v>
+      </c>
+      <c r="AH8">
+        <v>1.07728534434249E-2</v>
+      </c>
+      <c r="AI8">
+        <v>1.01185811738308E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>8.7627133244503694E-3</v>
+      </c>
+      <c r="AK8">
+        <v>8.6430511304300302E-3</v>
+      </c>
+      <c r="AL8">
+        <v>7.7775642397422996E-3</v>
+      </c>
+      <c r="AM8">
+        <v>7.5411540965800898E-3</v>
+      </c>
+      <c r="AN8">
+        <v>7.5260212948430102E-3</v>
+      </c>
+      <c r="AO8">
+        <v>6.2463823065880596E-3</v>
+      </c>
+      <c r="AP8">
+        <v>6.1323834771462799E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>5.4508233512737597E-3</v>
+      </c>
+      <c r="AR8">
+        <v>5.2951181815333696E-3</v>
+      </c>
+      <c r="AS8">
+        <v>5.0983140744839698E-3</v>
+      </c>
+      <c r="AT8">
+        <v>4.9095751998716004E-3</v>
+      </c>
+      <c r="AU8">
+        <v>3.6198788974033001E-3</v>
+      </c>
+      <c r="AV8">
+        <v>3.22669850120787E-3</v>
+      </c>
+      <c r="AW8">
+        <v>2.5910940936421599E-3</v>
+      </c>
+      <c r="AX8">
+        <v>2.5348012375319101E-3</v>
+      </c>
+      <c r="AY8">
+        <v>2.5269452859324601E-3</v>
+      </c>
+      <c r="AZ8">
+        <v>2.3599542561581499E-3</v>
+      </c>
+      <c r="BA8">
+        <v>2.2936429437573798E-3</v>
+      </c>
+      <c r="BB8">
+        <v>2.2790466021195099E-3</v>
+      </c>
+      <c r="BC8">
+        <v>1.9742618916767998E-3</v>
+      </c>
+      <c r="BD8">
+        <v>1.87212514697748E-3</v>
+      </c>
+      <c r="BE8">
+        <v>1.8116236192605201E-3</v>
+      </c>
+      <c r="BF8">
+        <v>8.8053911191082095E-4</v>
+      </c>
+      <c r="BG8">
+        <v>4.5088902973616898E-4</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>5.2740928915010697E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>0.15955752385494301</v>
+      </c>
+      <c r="C9">
+        <v>0.11784982976332201</v>
+      </c>
+      <c r="D9">
+        <v>0.10964495135223</v>
+      </c>
+      <c r="E9">
+        <v>2.8445811725627702E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.8404116821217702E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.8349566118140199E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.6080236693930399E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.4850521656856198E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.44663176003071E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.33421697806061E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.3074285712998001E-2</v>
+      </c>
+      <c r="M9">
+        <v>2.1465663600758501E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.0778209560672799E-2</v>
+      </c>
+      <c r="O9">
+        <v>2.07676930991589E-2</v>
+      </c>
+      <c r="P9">
+        <v>2.0273936215143201E-2</v>
+      </c>
+      <c r="Q9">
+        <v>2.0164872048880698E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.9880231751767299E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.98654616440475E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.9789783079235498E-2</v>
+      </c>
+      <c r="U9">
+        <v>1.9620324203626398E-2</v>
+      </c>
+      <c r="V9">
+        <v>1.9265625405250099E-2</v>
+      </c>
+      <c r="W9">
+        <v>1.8439710240647701E-2</v>
+      </c>
+      <c r="X9">
+        <v>1.8018454191738299E-2</v>
+      </c>
+      <c r="Y9">
+        <v>1.7456512606277601E-2</v>
+      </c>
+      <c r="Z9">
+        <v>1.6509841677659402E-2</v>
+      </c>
+      <c r="AA9">
+        <v>1.20103029256497E-2</v>
+      </c>
+      <c r="AB9">
+        <v>1.15923001959176E-2</v>
+      </c>
+      <c r="AC9">
+        <v>1.0309085865772699E-2</v>
+      </c>
+      <c r="AD9">
+        <v>8.0561345378746905E-3</v>
+      </c>
+      <c r="AE9">
+        <v>7.61770566864939E-3</v>
+      </c>
+      <c r="AF9">
+        <v>7.3929977093229399E-3</v>
+      </c>
+      <c r="AG9">
+        <v>6.9444943045236397E-3</v>
+      </c>
+      <c r="AH9">
+        <v>6.6492001026222502E-3</v>
+      </c>
+      <c r="AI9">
+        <v>6.4077306022207597E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>6.3636443938967701E-3</v>
+      </c>
+      <c r="AK9">
+        <v>6.1280707018732204E-3</v>
+      </c>
+      <c r="AL9">
+        <v>5.4328825766582498E-3</v>
+      </c>
+      <c r="AM9">
+        <v>4.9444361027435801E-3</v>
+      </c>
+      <c r="AN9">
+        <v>4.5875602258865803E-3</v>
+      </c>
+      <c r="AO9">
+        <v>4.3558769773609203E-3</v>
+      </c>
+      <c r="AP9">
+        <v>3.4274007037279099E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>3.22156290422717E-3</v>
+      </c>
+      <c r="AR9">
+        <v>3.0978752930963301E-3</v>
+      </c>
+      <c r="AS9">
+        <v>3.0197841301371799E-3</v>
+      </c>
+      <c r="AT9">
+        <v>1.9879346521854101E-3</v>
+      </c>
+      <c r="AU9">
+        <v>1.75448086886132E-3</v>
+      </c>
+      <c r="AV9">
+        <v>1.7103154998827201E-3</v>
+      </c>
+      <c r="AW9">
+        <v>1.52208194862394E-3</v>
+      </c>
+      <c r="AX9">
+        <v>1.4759391299939599E-3</v>
+      </c>
+      <c r="AY9">
+        <v>1.46551623106366E-3</v>
+      </c>
+      <c r="AZ9">
+        <v>1.20329487726704E-3</v>
+      </c>
+      <c r="BA9">
+        <v>6.4522825750296803E-4</v>
+      </c>
+      <c r="BB9">
+        <v>3.0270948064513298E-4</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>1.1339693626392799E-5</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>4.6303314043274701E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>0.13350603320158</v>
+      </c>
+      <c r="C10">
+        <v>7.9341944025173902E-2</v>
+      </c>
+      <c r="D10">
+        <v>7.2936642085052295E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.8375775757757598E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.1354485490981599E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.6642262339912799E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.5368266791561199E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.3278525484155502E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.21927618785808E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.1254094458587301E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.1235401369275299E-2</v>
+      </c>
+      <c r="M10">
+        <v>2.0958502647600401E-2</v>
+      </c>
+      <c r="N10">
+        <v>2.00857389312049E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.9812830896177299E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.9098154921661E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.8118432623320701E-2</v>
+      </c>
+      <c r="R10">
+        <v>1.76641358901104E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.7507961478559202E-2</v>
+      </c>
+      <c r="T10">
+        <v>1.70210996916089E-2</v>
+      </c>
+      <c r="U10">
+        <v>1.6319772957160701E-2</v>
+      </c>
+      <c r="V10">
+        <v>1.56488870323102E-2</v>
+      </c>
+      <c r="W10">
+        <v>1.54910978289027E-2</v>
+      </c>
+      <c r="X10">
+        <v>1.5360432719107199E-2</v>
+      </c>
+      <c r="Y10">
+        <v>1.53171605859214E-2</v>
+      </c>
+      <c r="Z10">
+        <v>1.52669117617072E-2</v>
+      </c>
+      <c r="AA10">
+        <v>1.52644636224321E-2</v>
+      </c>
+      <c r="AB10">
+        <v>1.4781168710560001E-2</v>
+      </c>
+      <c r="AC10">
+        <v>1.4774541916541499E-2</v>
+      </c>
+      <c r="AD10">
+        <v>1.2034839165939599E-2</v>
+      </c>
+      <c r="AE10">
+        <v>1.14079588801202E-2</v>
+      </c>
+      <c r="AF10">
+        <v>1.1255973883128399E-2</v>
+      </c>
+      <c r="AG10">
+        <v>1.12161377936123E-2</v>
+      </c>
+      <c r="AH10">
+        <v>1.06012043515093E-2</v>
+      </c>
+      <c r="AI10">
+        <v>1.04431028717363E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>9.7703671219880796E-3</v>
+      </c>
+      <c r="AK10">
+        <v>9.4908819582748792E-3</v>
+      </c>
+      <c r="AL10">
+        <v>9.4423296369626208E-3</v>
+      </c>
+      <c r="AM10">
+        <v>8.3954873592151907E-3</v>
+      </c>
+      <c r="AN10">
+        <v>8.3945486700792299E-3</v>
+      </c>
+      <c r="AO10">
+        <v>7.8207238255010199E-3</v>
+      </c>
+      <c r="AP10">
+        <v>7.2138834702918904E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>5.9243581378486199E-3</v>
+      </c>
+      <c r="AR10">
+        <v>5.8535552078238899E-3</v>
+      </c>
+      <c r="AS10">
+        <v>5.7535340689234297E-3</v>
+      </c>
+      <c r="AT10">
+        <v>5.5465696377149697E-3</v>
+      </c>
+      <c r="AU10">
+        <v>4.7033996549973199E-3</v>
+      </c>
+      <c r="AV10">
+        <v>4.2127133459380498E-3</v>
+      </c>
+      <c r="AW10">
+        <v>3.9035645118297101E-3</v>
+      </c>
+      <c r="AX10">
+        <v>3.1750154719167099E-3</v>
+      </c>
+      <c r="AY10">
+        <v>3.13691828992281E-3</v>
+      </c>
+      <c r="AZ10">
+        <v>2.6686758314282601E-3</v>
+      </c>
+      <c r="BA10">
+        <v>2.5372011473432298E-3</v>
+      </c>
+      <c r="BB10">
+        <v>2.4849365379222099E-3</v>
+      </c>
+      <c r="BC10">
+        <v>2.3262142080352202E-3</v>
+      </c>
+      <c r="BD10">
+        <v>2.2781655268032902E-3</v>
+      </c>
+      <c r="BE10">
+        <v>2.25980694164545E-3</v>
+      </c>
+      <c r="BF10">
+        <v>9.7457893739008605E-4</v>
+      </c>
+      <c r="BG10">
+        <v>7.9586645665143997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>0.156705016551072</v>
+      </c>
+      <c r="C11">
+        <v>0.119669138632649</v>
+      </c>
+      <c r="D11">
+        <v>0.110132329810707</v>
+      </c>
+      <c r="E11">
+        <v>2.8219878739466998E-2</v>
+      </c>
+      <c r="F11">
+        <v>2.8126047042770701E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.76596750466012E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.7264932702672499E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.6343985426533E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.4105052401833402E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.3128270936385E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.30104752828738E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.14704308690934E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.05550295672371E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.0412810805138099E-2</v>
+      </c>
+      <c r="P11">
+        <v>2.03640275434364E-2</v>
+      </c>
+      <c r="Q11">
+        <v>2.01900479086751E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.01375566947322E-2</v>
+      </c>
+      <c r="S11">
+        <v>2.0110881668476101E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.0039626450587201E-2</v>
+      </c>
+      <c r="U11">
+        <v>1.9961027651984702E-2</v>
+      </c>
+      <c r="V11">
+        <v>1.9610611546789301E-2</v>
+      </c>
+      <c r="W11">
+        <v>1.9357828499263999E-2</v>
+      </c>
+      <c r="X11">
+        <v>1.7695503877816599E-2</v>
+      </c>
+      <c r="Y11">
+        <v>1.7315432614862399E-2</v>
+      </c>
+      <c r="Z11">
+        <v>1.6060972856728299E-2</v>
+      </c>
+      <c r="AA11">
+        <v>1.2407380193402699E-2</v>
+      </c>
+      <c r="AB11">
+        <v>1.1034758521670299E-2</v>
+      </c>
+      <c r="AC11">
+        <v>1.06093829747536E-2</v>
+      </c>
+      <c r="AD11">
+        <v>8.5635757643029598E-3</v>
+      </c>
+      <c r="AE11">
+        <v>7.9105048045268501E-3</v>
+      </c>
+      <c r="AF11">
+        <v>6.8501329879843698E-3</v>
+      </c>
+      <c r="AG11">
+        <v>6.7968032483412197E-3</v>
+      </c>
+      <c r="AH11">
+        <v>6.6380839377263396E-3</v>
+      </c>
+      <c r="AI11">
+        <v>6.4066298299687201E-3</v>
+      </c>
+      <c r="AJ11">
+        <v>6.0356649712689798E-3</v>
+      </c>
+      <c r="AK11">
+        <v>6.0014716505710003E-3</v>
+      </c>
+      <c r="AL11">
+        <v>6.0010453016787098E-3</v>
+      </c>
+      <c r="AM11">
+        <v>5.5541343318590702E-3</v>
+      </c>
+      <c r="AN11">
+        <v>3.7868265379227399E-3</v>
+      </c>
+      <c r="AO11">
+        <v>3.5388960877877798E-3</v>
+      </c>
+      <c r="AP11">
+        <v>3.4699808090556E-3</v>
+      </c>
+      <c r="AQ11">
+        <v>3.18165808531252E-3</v>
+      </c>
+      <c r="AR11">
+        <v>3.0610622141450101E-3</v>
+      </c>
+      <c r="AS11">
+        <v>2.7977687913704101E-3</v>
+      </c>
+      <c r="AT11">
+        <v>1.9293114398309899E-3</v>
+      </c>
+      <c r="AU11">
+        <v>1.73610351146032E-3</v>
+      </c>
+      <c r="AV11">
+        <v>1.6077961665987299E-3</v>
+      </c>
+      <c r="AW11">
+        <v>1.5685315045497899E-3</v>
+      </c>
+      <c r="AX11">
+        <v>1.5518888383762601E-3</v>
+      </c>
+      <c r="AY11">
+        <v>1.3335379366778001E-3</v>
+      </c>
+      <c r="AZ11">
+        <v>1.1533309902328E-3</v>
+      </c>
+      <c r="BA11">
+        <v>5.0775997587609899E-4</v>
+      </c>
+      <c r="BB11">
+        <v>2.4487185190302102E-4</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>6.4827571588945494E-5</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>9.6880408674449002E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>0.13029448711772099</v>
+      </c>
+      <c r="C12">
+        <v>7.8478191377798004E-2</v>
+      </c>
+      <c r="D12">
+        <v>7.1961150575814703E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.9844830385303497E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.9955355033948002E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.9476323733988799E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.9390515331383801E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.8376920223231399E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.3224860696165601E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.2763441002137501E-2</v>
+      </c>
+      <c r="L12">
+        <v>2.2152536559902399E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.0397474804218201E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.0250961126120199E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.9727870572421299E-2</v>
+      </c>
+      <c r="P12">
+        <v>1.8866206370834599E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.8808016694252298E-2</v>
+      </c>
+      <c r="R12">
+        <v>1.7805464170002699E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.7770051368792499E-2</v>
+      </c>
+      <c r="T12">
+        <v>1.7703331194533899E-2</v>
+      </c>
+      <c r="U12">
+        <v>1.6748074576766699E-2</v>
+      </c>
+      <c r="V12">
+        <v>1.5534535326826899E-2</v>
+      </c>
+      <c r="W12">
+        <v>1.5455530482256299E-2</v>
+      </c>
+      <c r="X12">
+        <v>1.52646647026704E-2</v>
+      </c>
+      <c r="Y12">
+        <v>1.48078435563503E-2</v>
+      </c>
+      <c r="Z12">
+        <v>1.4607580607664299E-2</v>
+      </c>
+      <c r="AA12">
+        <v>1.4380980841861801E-2</v>
+      </c>
+      <c r="AB12">
+        <v>1.4010772913098501E-2</v>
+      </c>
+      <c r="AC12">
+        <v>1.1736150133886999E-2</v>
+      </c>
+      <c r="AD12">
+        <v>1.1727750660416401E-2</v>
+      </c>
+      <c r="AE12">
+        <v>1.1695473493555699E-2</v>
+      </c>
+      <c r="AF12">
+        <v>1.1497482851906E-2</v>
+      </c>
+      <c r="AG12">
+        <v>1.12549021384366E-2</v>
+      </c>
+      <c r="AH12">
+        <v>1.0902542306370199E-2</v>
+      </c>
+      <c r="AI12">
+        <v>1.08884527603181E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.05660968272279E-2</v>
+      </c>
+      <c r="AK12">
+        <v>9.5453315582760007E-3</v>
+      </c>
+      <c r="AL12">
+        <v>9.4047405759854208E-3</v>
+      </c>
+      <c r="AM12">
+        <v>8.7472488165433893E-3</v>
+      </c>
+      <c r="AN12">
+        <v>8.4527100807859495E-3</v>
+      </c>
+      <c r="AO12">
+        <v>8.1429053218777091E-3</v>
+      </c>
+      <c r="AP12">
+        <v>7.7732658437799102E-3</v>
+      </c>
+      <c r="AQ12">
+        <v>6.4299617609392202E-3</v>
+      </c>
+      <c r="AR12">
+        <v>6.3111777686076197E-3</v>
+      </c>
+      <c r="AS12">
+        <v>5.7914284339554197E-3</v>
+      </c>
+      <c r="AT12">
+        <v>5.3339616826556698E-3</v>
+      </c>
+      <c r="AU12">
+        <v>4.7020261249088296E-3</v>
+      </c>
+      <c r="AV12">
+        <v>4.6603936914433302E-3</v>
+      </c>
+      <c r="AW12">
+        <v>3.48708462439938E-3</v>
+      </c>
+      <c r="AX12">
+        <v>3.2644178560353402E-3</v>
+      </c>
+      <c r="AY12">
+        <v>3.2536766536363799E-3</v>
+      </c>
+      <c r="AZ12">
+        <v>2.5771285425001699E-3</v>
+      </c>
+      <c r="BA12">
+        <v>2.54678210168596E-3</v>
+      </c>
+      <c r="BB12">
+        <v>2.4993834133164301E-3</v>
+      </c>
+      <c r="BC12">
+        <v>2.4069897516524798E-3</v>
+      </c>
+      <c r="BD12">
+        <v>2.3297692988362398E-3</v>
+      </c>
+      <c r="BE12">
+        <v>2.2543234979754499E-3</v>
+      </c>
+      <c r="BF12">
+        <v>1.04931496401875E-3</v>
+      </c>
+      <c r="BG12">
+        <v>7.0915511799866699E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>